--- a/balance_payments.xlsx
+++ b/balance_payments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,9 +24,6 @@
     <t>Bitcoin</t>
   </si>
   <si>
-    <t>1K58xGp3vzTgGC1JeQsmoTfXP3zq4TdA4S</t>
-  </si>
-  <si>
     <t>Банковская карта</t>
   </si>
   <si>
@@ -36,12 +33,6 @@
     <t>Litecoin</t>
   </si>
   <si>
-    <t>MFsJqCD2vh5DXVs4sBeqH1rQM7N6qWxzjJ</t>
-  </si>
-  <si>
-    <t>+79775752135</t>
-  </si>
-  <si>
     <t>4048415027506852</t>
   </si>
   <si>
@@ -49,19 +40,35 @@
   </si>
   <si>
     <t>4048415033910031</t>
+  </si>
+  <si>
+    <t>1LA5iwzq3KA8cPimR7MoZmcfT3g3e6p5Uj</t>
+  </si>
+  <si>
+    <t>MKg3EPNarqiLa1Yv9rvBRZJfVhC9snLHyF</t>
+  </si>
+  <si>
+    <t>недоступен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,12 +91,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,69 +377,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
